--- a/python/lin/pert SD t1=6 t2=4.xlsx
+++ b/python/lin/pert SD t1=6 t2=4.xlsx
@@ -473,22 +473,22 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>6.00e+00</t>
+          <t>5.02e+00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3.28e-07</t>
+          <t>0.048</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>5.99e+00</t>
+          <t>5.19e+00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.0959</t>
+          <t>0.0721</t>
         </is>
       </c>
     </row>
@@ -505,22 +505,22 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>4.00e+00</t>
+          <t>2.96e+00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.12e-06</t>
+          <t>0.0117</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4.01e+00</t>
+          <t>2.91e+00</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.329</t>
+          <t>0.0396</t>
         </is>
       </c>
     </row>
@@ -532,27 +532,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>4.00e+00</t>
+          <t>3.00e+00</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>4.00e+00</t>
+          <t>2.70e+00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.1e-06</t>
+          <t>0.0198</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4.06e+00</t>
+          <t>2.63e+00</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.326</t>
+          <t>0.0491</t>
         </is>
       </c>
     </row>
@@ -574,7 +574,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.48e-11</t>
+          <t>2.93e-05</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -584,7 +584,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.5e-06</t>
+          <t>2.77e-05</t>
         </is>
       </c>
     </row>
